--- a/files/作业上交情况.xlsx
+++ b/files/作业上交情况.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{758E1902-2125-4E77-8231-B499C2C9944E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2567EC9F-3749-45F6-B79D-9E65D5E52CA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E2A6D1C-06B5-49E4-80A8-E6DA5E9EDF9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D201FA1-8AD9-4B75-A5BA-EE1776F196BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>原序号</t>
   </si>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>平时3</t>
+  </si>
+  <si>
+    <t>平时4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -121,6 +125,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC49F535-BB8B-411E-A6C7-68D986115A55}">
-  <dimension ref="A1:E156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FA85B-D02E-42FF-A220-FE7923CEABFE}">
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -447,9 +454,10 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="23.77734375" style="2" customWidth="1"/>
     <col min="3" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +473,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -482,8 +493,11 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -499,8 +513,11 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -511,13 +528,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -533,8 +553,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -550,8 +573,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -567,8 +593,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -584,8 +613,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -601,8 +633,11 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -618,8 +653,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -635,8 +673,11 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -652,8 +693,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -669,8 +713,11 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -686,8 +733,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -703,8 +753,11 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -720,8 +773,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -737,8 +793,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -754,8 +813,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -771,8 +833,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -788,8 +853,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -805,8 +873,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -822,8 +893,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -839,8 +913,11 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -856,8 +933,11 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -873,8 +953,11 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -890,8 +973,11 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -907,8 +993,11 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -924,8 +1013,11 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -941,8 +1033,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -958,8 +1053,11 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -975,8 +1073,11 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -992,8 +1093,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1009,8 +1113,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1026,8 +1133,11 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1043,8 +1153,11 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1060,8 +1173,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1077,8 +1193,11 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1094,8 +1213,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1111,8 +1233,11 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1128,8 +1253,11 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1145,8 +1273,11 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1162,8 +1293,11 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1179,8 +1313,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1196,8 +1333,11 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1213,8 +1353,11 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1228,10 +1371,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1247,8 +1393,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1264,8 +1413,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1279,10 +1431,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1298,8 +1453,11 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1315,8 +1473,11 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1332,8 +1493,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1349,8 +1513,11 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1366,8 +1533,11 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1383,8 +1553,11 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1400,8 +1573,11 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1417,8 +1593,11 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1434,8 +1613,11 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1451,8 +1633,11 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1468,8 +1653,11 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1485,8 +1673,11 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1502,8 +1693,11 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1519,8 +1713,11 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1536,8 +1733,11 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1553,8 +1753,11 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1570,8 +1773,11 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1587,8 +1793,11 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1604,8 +1813,11 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -1621,8 +1833,11 @@
       <c r="E69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -1638,8 +1853,11 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -1655,8 +1873,11 @@
       <c r="E71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -1672,8 +1893,11 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -1689,8 +1913,11 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -1706,8 +1933,11 @@
       <c r="E74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -1723,8 +1953,11 @@
       <c r="E75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -1740,8 +1973,11 @@
       <c r="E76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -1757,8 +1993,11 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -1774,8 +2013,11 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -1791,8 +2033,11 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -1808,8 +2053,11 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -1825,8 +2073,11 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -1842,8 +2093,11 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -1859,8 +2113,11 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -1876,8 +2133,11 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -1885,16 +2145,19 @@
         <v>3170300623</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -1910,8 +2173,11 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -1927,8 +2193,11 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -1944,8 +2213,11 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -1961,8 +2233,11 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -1978,8 +2253,11 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -1995,8 +2273,11 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -2012,8 +2293,11 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -2029,8 +2313,11 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -2046,8 +2333,11 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -2063,8 +2353,11 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -2080,8 +2373,11 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -2097,8 +2393,11 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -2114,8 +2413,11 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -2131,8 +2433,11 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -2148,8 +2453,11 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -2165,8 +2473,11 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -2182,8 +2493,11 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -2199,8 +2513,11 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -2216,8 +2533,11 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -2233,8 +2553,11 @@
       <c r="E105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -2250,8 +2573,11 @@
       <c r="E106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -2267,8 +2593,11 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -2284,8 +2613,11 @@
       <c r="E108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -2301,8 +2633,11 @@
       <c r="E109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -2318,8 +2653,11 @@
       <c r="E110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -2335,8 +2673,11 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -2344,7 +2685,7 @@
         <v>3150300109</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -2352,8 +2693,11 @@
       <c r="E112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -2369,8 +2713,11 @@
       <c r="E113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -2386,8 +2733,11 @@
       <c r="E114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -2403,8 +2753,11 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -2420,8 +2773,11 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -2437,8 +2793,11 @@
       <c r="E117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -2452,10 +2811,13 @@
         <v>1</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -2471,8 +2833,11 @@
       <c r="E119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -2488,8 +2853,11 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -2505,8 +2873,11 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -2522,8 +2893,11 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -2539,8 +2913,11 @@
       <c r="E123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -2556,8 +2933,11 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -2573,8 +2953,11 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -2590,8 +2973,11 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -2607,8 +2993,11 @@
       <c r="E127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -2624,8 +3013,11 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -2641,8 +3033,11 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -2658,8 +3053,11 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -2675,8 +3073,11 @@
       <c r="E131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -2692,8 +3093,11 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -2709,8 +3113,11 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -2726,8 +3133,11 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -2743,8 +3153,11 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -2760,8 +3173,11 @@
       <c r="E136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -2777,8 +3193,11 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -2789,13 +3208,16 @@
         <v>0</v>
       </c>
       <c r="D138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -2811,8 +3233,11 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -2828,8 +3253,11 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -2845,8 +3273,11 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -2862,8 +3293,11 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -2879,8 +3313,11 @@
       <c r="E143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -2896,8 +3333,11 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -2913,8 +3353,11 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -2930,8 +3373,11 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -2947,8 +3393,11 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -2964,8 +3413,11 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -2981,8 +3433,11 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -2998,8 +3453,11 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -3015,8 +3473,11 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -3032,8 +3493,11 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -3049,8 +3513,11 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>163</v>
       </c>
@@ -3066,8 +3533,11 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>3160100049</v>
       </c>
@@ -3077,8 +3547,11 @@
       <c r="E155" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>3150100008</v>
       </c>
@@ -3086,6 +3559,9 @@
         <v>1</v>
       </c>
       <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" s="4">
         <v>1</v>
       </c>
     </row>

--- a/files/作业上交情况.xlsx
+++ b/files/作业上交情况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2567EC9F-3749-45F6-B79D-9E65D5E52CA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD021B67-6007-4ADF-8AA0-B029F9D0BFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D201FA1-8AD9-4B75-A5BA-EE1776F196BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{890B8F93-AD54-48BD-A837-1C8F4C516B17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
   <si>
     <t>原序号</t>
   </si>
   <si>
     <t>学号</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>材料科学与工程</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>电气工程及其自动化</t>
+  </si>
+  <si>
+    <t>电子科学与技术</t>
+  </si>
+  <si>
+    <t>电子信息工程(电气学院)</t>
+  </si>
+  <si>
+    <t>工商管理</t>
+  </si>
+  <si>
+    <t>工业设计</t>
+  </si>
+  <si>
+    <t>国际经济与贸易</t>
+  </si>
+  <si>
+    <t>国际经济与贸易(留学生)</t>
+  </si>
+  <si>
+    <t>国际政治</t>
+  </si>
+  <si>
+    <t>化学工程与工艺</t>
+  </si>
+  <si>
+    <t>会计学</t>
+  </si>
+  <si>
+    <t>机械电子工程</t>
+  </si>
+  <si>
+    <t>机械工程</t>
+  </si>
+  <si>
+    <t>建筑学</t>
+  </si>
+  <si>
+    <t>金融学</t>
+  </si>
+  <si>
+    <t>金融学(留学生)</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>旅游管理</t>
+  </si>
+  <si>
+    <t>农林经济管理</t>
+  </si>
+  <si>
+    <t>农业资源与环境</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>生态学</t>
+  </si>
+  <si>
+    <t>生物技术</t>
+  </si>
+  <si>
+    <t>生物科学</t>
+  </si>
+  <si>
+    <t>生物医学工程</t>
+  </si>
+  <si>
+    <t>食品科学与工程</t>
+  </si>
+  <si>
+    <t>市场营销</t>
+  </si>
+  <si>
+    <t>土木工程</t>
+  </si>
+  <si>
+    <t>新能源科学与工程</t>
+  </si>
+  <si>
+    <t>心理学ANGANGANG</t>
+  </si>
+  <si>
+    <t>信息管理与信息系统</t>
+  </si>
+  <si>
+    <t>信息资源管理</t>
+  </si>
+  <si>
+    <t>行政管理</t>
+  </si>
+  <si>
+    <t>应用心理学</t>
+  </si>
+  <si>
+    <t>制药工程</t>
+  </si>
+  <si>
+    <t>自动化(控制)</t>
   </si>
   <si>
     <t>平时1</t>
@@ -43,6 +157,14 @@
   </si>
   <si>
     <t>平时4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -124,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,3131 +567,4538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871FA85B-D02E-42FF-A220-FE7923CEABFE}">
-  <dimension ref="A1:F156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D04C506-E5F3-411F-936A-5D4C5CC0D832}">
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="23.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="9" width="16.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>3160300164</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>3170104700</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>3170104701</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>3170104731</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>3170104737</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
         <v>3170300041</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
         <v>3170300618</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
         <v>3170300629</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
         <v>3170300655</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
         <v>3180300079</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
         <v>3170300058</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
         <v>3180300035</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
         <v>3180300060</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
         <v>3180300066</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
         <v>3180300068</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
         <v>3180300070</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
         <v>3180300116</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
         <v>3180300124</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
         <v>3180300131</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
         <v>3180300135</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
         <v>3180300137</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
         <v>3180300150</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
         <v>3180300251</v>
       </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
         <v>3180300284</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
         <v>3180300436</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
         <v>3160300524</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
         <v>3170104736</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
         <v>3140105133</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
         <v>3170104721</v>
       </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
         <v>3170104722</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
         <v>3170104729</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
         <v>3170104739</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
         <v>3170104740</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
         <v>3180300005</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
         <v>3180300006</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
         <v>3180300179</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
         <v>3180300261</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
         <v>3180300268</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
         <v>3180300316</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
         <v>3180300351</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
         <v>3180300361</v>
       </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
         <v>3180300426</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1">
         <v>3180300456</v>
       </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
         <v>3180300547</v>
       </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
         <v>3180300554</v>
       </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
         <v>3180300569</v>
       </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
         <v>3180300570</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
         <v>3180300618</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
         <v>3180300652</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
         <v>3180300681</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1">
         <v>3130300003</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
         <v>3130300236</v>
       </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
         <v>3130300302</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
         <v>3140300198</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1">
         <v>3140300315</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="1">
         <v>3150300270</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
-      <c r="F57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
         <v>3150300304</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1">
         <v>3150300322</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
         <v>3160300005</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1">
         <v>3160300044</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
         <v>3160300132</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1">
         <v>3160300184</v>
       </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1">
         <v>3160300265</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1">
         <v>3160300278</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1">
         <v>3160300283</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1">
         <v>3160300292</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1">
         <v>3160300302</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
         <v>3160300371</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1">
         <v>3160300442</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
         <v>3160300533</v>
       </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1">
         <v>3170300009</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
-      <c r="F72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
         <v>3170300245</v>
       </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1">
         <v>3170300257</v>
       </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
       <c r="D74" s="1">
         <v>0</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
         <v>3170300292</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
-      <c r="F75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1">
         <v>3170300318</v>
       </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
       <c r="D76" s="1">
         <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
       </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1">
         <v>3170300363</v>
       </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1">
         <v>3170300389</v>
       </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
       <c r="D78" s="1">
         <v>1</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1">
         <v>3170300392</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
       <c r="D79" s="1">
         <v>1</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1">
         <v>3170300425</v>
       </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
       <c r="D80" s="1">
         <v>1</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1">
         <v>3170300489</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1">
         <v>3170300510</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1">
         <v>3170300518</v>
       </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1">
         <v>3170300542</v>
       </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1">
         <v>3170300623</v>
       </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
       <c r="D85" s="1">
         <v>1</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1">
         <v>3170300673</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="5">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1">
         <v>3140300089</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
       <c r="D87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="5">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1">
         <v>3150300095</v>
       </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
       <c r="D88" s="1">
         <v>1</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1">
         <v>3150300096</v>
       </c>
-      <c r="C89" s="1">
-        <v>0</v>
-      </c>
       <c r="D89" s="1">
         <v>0</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
       </c>
-      <c r="F89" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1">
         <v>3150300098</v>
       </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
-      <c r="F90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="1">
         <v>3170300597</v>
       </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
       <c r="D91" s="1">
         <v>0</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="F91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="1">
         <v>3160300022</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
       <c r="D92" s="1">
         <v>0</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="F92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="1">
         <v>3160300226</v>
       </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="F93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="1">
         <v>3180300198</v>
       </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
       <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="5">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1">
         <v>3150300191</v>
       </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
       <c r="D95" s="1">
         <v>0</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="1">
         <v>3170300128</v>
       </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1">
         <v>3180300651</v>
       </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
-      <c r="F97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="5">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="1">
         <v>3180300243</v>
       </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
       <c r="D98" s="1">
         <v>1</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
-      <c r="F98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="1">
         <v>3180300056</v>
       </c>
-      <c r="C99" s="1">
-        <v>1</v>
-      </c>
       <c r="D99" s="1">
         <v>1</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="F99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1">
         <v>3180300098</v>
       </c>
-      <c r="C100" s="1">
-        <v>1</v>
-      </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
-      <c r="F100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="1">
         <v>3180300172</v>
       </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
-      <c r="F101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="1">
         <v>3180300173</v>
       </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
       </c>
-      <c r="F102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="5">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="1">
         <v>3180300215</v>
       </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
       <c r="D103" s="1">
         <v>1</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
       </c>
-      <c r="F103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="1">
         <v>3180300252</v>
       </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
       <c r="D104" s="1">
         <v>1</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="5">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="1">
         <v>3150300330</v>
       </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
-      <c r="F105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1">
         <v>3150300331</v>
       </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
       <c r="D106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
       </c>
-      <c r="F106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="5">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1">
         <v>3160300011</v>
       </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
       <c r="D107" s="1">
         <v>1</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="1">
         <v>3160300519</v>
       </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
       <c r="D108" s="1">
         <v>1</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
       </c>
-      <c r="F108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="5">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1">
         <v>3180300128</v>
       </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
-      <c r="F109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="5">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="1">
         <v>3180300216</v>
       </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
       <c r="D110" s="1">
         <v>1</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
       </c>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="5">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="1">
         <v>3150300108</v>
       </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
       </c>
-      <c r="F111" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5">
+        <v>1</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="1">
         <v>3150300109</v>
       </c>
-      <c r="C112" s="1">
-        <v>1</v>
-      </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
       </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="5">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1">
         <v>3150300112</v>
       </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
       <c r="D113" s="1">
         <v>0</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
-      <c r="F113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="1">
         <v>3160300163</v>
       </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
       <c r="D114" s="1">
         <v>1</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
-      <c r="F114" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="5">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" s="1">
         <v>3160300166</v>
       </c>
-      <c r="C115" s="1">
-        <v>1</v>
-      </c>
       <c r="D115" s="1">
         <v>1</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
-      <c r="F115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="1">
         <v>3170300021</v>
       </c>
-      <c r="C116" s="1">
-        <v>1</v>
-      </c>
       <c r="D116" s="1">
         <v>1</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
-      <c r="F116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="5">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="1">
         <v>3170300061</v>
       </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
       <c r="D117" s="1">
         <v>1</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
-      <c r="F117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="1">
         <v>3170300117</v>
       </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
       <c r="D118" s="1">
         <v>1</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="1">
         <v>3170300254</v>
       </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
       <c r="D119" s="1">
         <v>1</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
-      </c>
-      <c r="F119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="1">
         <v>3170300345</v>
       </c>
-      <c r="C120" s="1">
-        <v>1</v>
-      </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="5">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1">
         <v>3150300123</v>
       </c>
-      <c r="C121" s="1">
-        <v>1</v>
-      </c>
       <c r="D121" s="1">
         <v>1</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="5">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="1">
         <v>3180300138</v>
       </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
       </c>
-      <c r="F122" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="5">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="1">
         <v>3150300218</v>
       </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
       <c r="D123" s="1">
         <v>0</v>
       </c>
       <c r="E123" s="1">
         <v>0</v>
       </c>
-      <c r="F123" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="1">
         <v>3180300088</v>
       </c>
-      <c r="C124" s="1">
-        <v>1</v>
-      </c>
       <c r="D124" s="1">
         <v>1</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="5">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="1">
         <v>3170300194</v>
       </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
       </c>
-      <c r="F125" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="5">
+        <v>1</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="1">
         <v>3180300258</v>
       </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
       <c r="D126" s="1">
         <v>1</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="1">
         <v>3170300321</v>
       </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
       <c r="D127" s="1">
         <v>0</v>
       </c>
       <c r="E127" s="1">
         <v>0</v>
       </c>
-      <c r="F127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="1">
         <v>3160100048</v>
       </c>
-      <c r="C128" s="1">
-        <v>1</v>
-      </c>
       <c r="D128" s="1">
         <v>1</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
-      <c r="F128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="5">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>129</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="1">
         <v>3160300495</v>
       </c>
-      <c r="C129" s="1">
-        <v>1</v>
-      </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
       </c>
-      <c r="F129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="5">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="1">
         <v>3180300300</v>
       </c>
-      <c r="C130" s="1">
-        <v>1</v>
-      </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
       </c>
-      <c r="F130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" s="5">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="1">
         <v>3160300231</v>
       </c>
-      <c r="C131" s="1">
-        <v>1</v>
-      </c>
       <c r="D131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="5">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="1">
         <v>3160300258</v>
       </c>
-      <c r="C132" s="1">
-        <v>1</v>
-      </c>
       <c r="D132" s="1">
         <v>1</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
       </c>
-      <c r="F132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" s="5">
+        <v>1</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="1">
         <v>3160300531</v>
       </c>
-      <c r="C133" s="1">
-        <v>1</v>
-      </c>
       <c r="D133" s="1">
         <v>1</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="5">
+        <v>1</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="1">
         <v>3170300139</v>
       </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="1">
         <v>3170300287</v>
       </c>
-      <c r="C135" s="1">
-        <v>0</v>
-      </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
-      <c r="F135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="5">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
+      <c r="I135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="1">
         <v>3170300317</v>
       </c>
-      <c r="C136" s="1">
-        <v>1</v>
-      </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
       </c>
-      <c r="F136" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="5">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="1">
         <v>3170300419</v>
       </c>
-      <c r="C137" s="1">
-        <v>1</v>
-      </c>
       <c r="D137" s="1">
         <v>1</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
-      <c r="F137" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" s="5">
+        <v>1</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="1">
         <v>3170300514</v>
       </c>
-      <c r="C138" s="1">
-        <v>0</v>
-      </c>
       <c r="D138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
       </c>
-      <c r="F138" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="5">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="1">
         <v>3150105412</v>
       </c>
-      <c r="C139" s="1">
-        <v>1</v>
-      </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="F139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" s="5">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="1">
         <v>3170104678</v>
       </c>
-      <c r="C140" s="1">
-        <v>1</v>
-      </c>
       <c r="D140" s="1">
         <v>1</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
       </c>
-      <c r="F140" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" s="5">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="1">
         <v>3170300613</v>
       </c>
-      <c r="C141" s="1">
-        <v>1</v>
-      </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="5">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="1">
         <v>3170300616</v>
       </c>
-      <c r="C142" s="1">
-        <v>1</v>
-      </c>
       <c r="D142" s="1">
         <v>1</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="1">
         <v>3170300675</v>
       </c>
-      <c r="C143" s="1">
-        <v>0</v>
-      </c>
       <c r="D143" s="1">
         <v>0</v>
       </c>
       <c r="E143" s="1">
-        <v>0</v>
-      </c>
-      <c r="F143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="5">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="1">
         <v>3170300624</v>
       </c>
-      <c r="C144" s="1">
-        <v>1</v>
-      </c>
       <c r="D144" s="1">
         <v>1</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
       </c>
-      <c r="F144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="5">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
+      <c r="I144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="1">
         <v>3180300043</v>
       </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
       <c r="D145" s="1">
         <v>1</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="5">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="1">
         <v>3160300286</v>
       </c>
-      <c r="C146" s="1">
-        <v>1</v>
-      </c>
       <c r="D146" s="1">
         <v>1</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="F146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="1">
         <v>3180300153</v>
       </c>
-      <c r="C147" s="1">
-        <v>1</v>
-      </c>
       <c r="D147" s="1">
         <v>1</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F147" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="1">
         <v>3180300229</v>
       </c>
-      <c r="C148" s="1">
-        <v>1</v>
-      </c>
       <c r="D148" s="1">
         <v>1</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
-      <c r="F148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="5">
+        <v>1</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1</v>
+      </c>
+      <c r="I148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>149</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="1">
         <v>3180300058</v>
       </c>
-      <c r="C149" s="1">
-        <v>1</v>
-      </c>
       <c r="D149" s="1">
         <v>1</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" s="5">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1</v>
+      </c>
+      <c r="I149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>150</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" s="1">
         <v>3180300054</v>
       </c>
-      <c r="C150" s="1">
-        <v>1</v>
-      </c>
       <c r="D150" s="1">
         <v>1</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+      <c r="H150" s="1">
+        <v>1</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>151</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C151" s="1">
         <v>3180300222</v>
       </c>
-      <c r="C151" s="1">
-        <v>1</v>
-      </c>
       <c r="D151" s="1">
         <v>1</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
-      <c r="F151" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" s="5">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1">
+        <v>1</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C152" s="1">
         <v>3180300598</v>
       </c>
-      <c r="C152" s="1">
-        <v>1</v>
-      </c>
       <c r="D152" s="1">
         <v>1</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" s="5">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>153</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" s="1">
         <v>3150300346</v>
       </c>
-      <c r="C153" s="1">
-        <v>1</v>
-      </c>
       <c r="D153" s="1">
         <v>1</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
       </c>
-      <c r="F153" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" s="5">
+        <v>1</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1</v>
+      </c>
+      <c r="I153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>163</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="1">
         <v>3160300201</v>
       </c>
-      <c r="C154" s="1">
-        <v>1</v>
-      </c>
       <c r="D154" s="1">
         <v>1</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
       </c>
-      <c r="F154" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="3">
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" s="5">
+        <v>1</v>
+      </c>
+      <c r="H154" s="1">
+        <v>1</v>
+      </c>
+      <c r="I154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C155" s="3">
         <v>3160100049</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="4">
         <v>1</v>
       </c>
       <c r="E155" s="3">
         <v>1</v>
       </c>
-      <c r="F155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="3">
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="5">
+        <v>1</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1</v>
+      </c>
+      <c r="I155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C156" s="3">
         <v>3150100008</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="4">
         <v>1</v>
       </c>
       <c r="E156" s="3">
         <v>1</v>
       </c>
-      <c r="F156" s="4">
-        <v>1</v>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="5">
+        <v>1</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/作业上交情况.xlsx
+++ b/files/作业上交情况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD021B67-6007-4ADF-8AA0-B029F9D0BFB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF59F030-8FCE-446A-A423-81841C80D985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{890B8F93-AD54-48BD-A837-1C8F4C516B17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABC77B58-3A10-441C-94D9-9C793CD6E7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,131 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>原序号</t>
   </si>
   <si>
     <t>学号</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>材料科学与工程</t>
-  </si>
-  <si>
-    <t>财务管理</t>
-  </si>
-  <si>
-    <t>电气工程及其自动化</t>
-  </si>
-  <si>
-    <t>电子科学与技术</t>
-  </si>
-  <si>
-    <t>电子信息工程(电气学院)</t>
-  </si>
-  <si>
-    <t>工商管理</t>
-  </si>
-  <si>
-    <t>工业设计</t>
-  </si>
-  <si>
-    <t>国际经济与贸易</t>
-  </si>
-  <si>
-    <t>国际经济与贸易(留学生)</t>
-  </si>
-  <si>
-    <t>国际政治</t>
-  </si>
-  <si>
-    <t>化学工程与工艺</t>
-  </si>
-  <si>
-    <t>会计学</t>
-  </si>
-  <si>
-    <t>机械电子工程</t>
-  </si>
-  <si>
-    <t>机械工程</t>
-  </si>
-  <si>
-    <t>建筑学</t>
-  </si>
-  <si>
-    <t>金融学</t>
-  </si>
-  <si>
-    <t>金融学(留学生)</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>旅游管理</t>
-  </si>
-  <si>
-    <t>农林经济管理</t>
-  </si>
-  <si>
-    <t>农业资源与环境</t>
-  </si>
-  <si>
-    <t>软件工程</t>
-  </si>
-  <si>
-    <t>生态学</t>
-  </si>
-  <si>
-    <t>生物技术</t>
-  </si>
-  <si>
-    <t>生物科学</t>
-  </si>
-  <si>
-    <t>生物医学工程</t>
-  </si>
-  <si>
-    <t>食品科学与工程</t>
-  </si>
-  <si>
-    <t>市场营销</t>
-  </si>
-  <si>
-    <t>土木工程</t>
-  </si>
-  <si>
-    <t>新能源科学与工程</t>
-  </si>
-  <si>
-    <t>心理学ANGANGANG</t>
-  </si>
-  <si>
-    <t>信息管理与信息系统</t>
-  </si>
-  <si>
-    <t>信息资源管理</t>
-  </si>
-  <si>
-    <t>行政管理</t>
-  </si>
-  <si>
-    <t>应用心理学</t>
-  </si>
-  <si>
-    <t>制药工程</t>
-  </si>
-  <si>
-    <t>自动化(控制)</t>
   </si>
   <si>
     <t>平时1</t>
@@ -166,6 +57,17 @@
   <si>
     <t>平时6</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时9</t>
   </si>
 </sst>
 </file>
@@ -244,15 +146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,61 +469,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D04C506-E5F3-411F-936A-5D4C5CC0D832}">
-  <dimension ref="A1:I156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6398CB43-3400-463A-BD42-76543622033C}">
+  <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="9" width="16.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>3160300164</v>
       </c>
       <c r="C2" s="1">
-        <v>3160300164</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -629,10 +532,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -641,16 +544,22 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>3170104700</v>
       </c>
       <c r="C3" s="1">
-        <v>3170104700</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -658,10 +567,10 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -670,16 +579,22 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="1">
+        <v>3170104701</v>
       </c>
       <c r="C4" s="1">
-        <v>3170104701</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -687,28 +602,34 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" s="1">
+        <v>3170104731</v>
       </c>
       <c r="C5" s="1">
-        <v>3170104731</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -716,10 +637,10 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -728,16 +649,22 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
+      <c r="B6" s="1">
+        <v>3170104737</v>
       </c>
       <c r="C6" s="1">
-        <v>3170104737</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -745,10 +672,10 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
@@ -757,16 +684,22 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+      <c r="B7" s="1">
+        <v>3170300041</v>
       </c>
       <c r="C7" s="1">
-        <v>3170300041</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -774,28 +707,34 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
+      <c r="B8" s="1">
+        <v>3170300618</v>
       </c>
       <c r="C8" s="1">
-        <v>3170300618</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -803,10 +742,10 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
@@ -815,16 +754,22 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="B9" s="1">
+        <v>3170300629</v>
       </c>
       <c r="C9" s="1">
-        <v>3170300629</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -832,10 +777,10 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
@@ -844,16 +789,22 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+      <c r="B10" s="1">
+        <v>3170300655</v>
       </c>
       <c r="C10" s="1">
-        <v>3170300655</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -861,28 +812,34 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="1">
+        <v>3180300079</v>
       </c>
       <c r="C11" s="1">
-        <v>3180300079</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -890,10 +847,10 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
@@ -902,16 +859,22 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
+      <c r="B12" s="1">
+        <v>3170300058</v>
       </c>
       <c r="C12" s="1">
-        <v>3170300058</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -919,10 +882,10 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
@@ -931,16 +894,22 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
+      <c r="B13" s="1">
+        <v>3180300035</v>
       </c>
       <c r="C13" s="1">
-        <v>3180300035</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -948,10 +917,10 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
@@ -960,16 +929,22 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
+      <c r="B14" s="1">
+        <v>3180300060</v>
       </c>
       <c r="C14" s="1">
-        <v>3180300060</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -977,28 +952,34 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
+      <c r="B15" s="1">
+        <v>3180300066</v>
       </c>
       <c r="C15" s="1">
-        <v>3180300066</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1006,10 +987,10 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
@@ -1018,16 +999,22 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
+      <c r="B16" s="1">
+        <v>3180300068</v>
       </c>
       <c r="C16" s="1">
-        <v>3180300068</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1035,10 +1022,10 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
@@ -1047,16 +1034,22 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
+      <c r="B17" s="1">
+        <v>3180300070</v>
       </c>
       <c r="C17" s="1">
-        <v>3180300070</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1064,10 +1057,10 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
@@ -1076,16 +1069,22 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
+      <c r="B18" s="1">
+        <v>3180300116</v>
       </c>
       <c r="C18" s="1">
-        <v>3180300116</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1093,10 +1092,10 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
@@ -1105,16 +1104,22 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
+      <c r="B19" s="1">
+        <v>3180300124</v>
       </c>
       <c r="C19" s="1">
-        <v>3180300124</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1122,10 +1127,10 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
@@ -1134,16 +1139,22 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
+      <c r="B20" s="1">
+        <v>3180300131</v>
       </c>
       <c r="C20" s="1">
-        <v>3180300131</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1151,10 +1162,10 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
@@ -1163,16 +1174,22 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
+      <c r="B21" s="1">
+        <v>3180300135</v>
       </c>
       <c r="C21" s="1">
-        <v>3180300135</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1180,10 +1197,10 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
@@ -1192,16 +1209,22 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
+      <c r="B22" s="1">
+        <v>3180300137</v>
       </c>
       <c r="C22" s="1">
-        <v>3180300137</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1209,10 +1232,10 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
@@ -1221,16 +1244,22 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
+      <c r="B23" s="1">
+        <v>3180300150</v>
       </c>
       <c r="C23" s="1">
-        <v>3180300150</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1238,10 +1267,10 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
@@ -1250,16 +1279,22 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
+      <c r="B24" s="1">
+        <v>3180300251</v>
       </c>
       <c r="C24" s="1">
-        <v>3180300251</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1267,10 +1302,10 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
@@ -1279,16 +1314,22 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
+      <c r="B25" s="1">
+        <v>3180300284</v>
       </c>
       <c r="C25" s="1">
-        <v>3180300284</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1296,10 +1337,10 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
@@ -1308,16 +1349,22 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
+      <c r="B26" s="1">
+        <v>3180300436</v>
       </c>
       <c r="C26" s="1">
-        <v>3180300436</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1325,10 +1372,10 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1">
@@ -1337,16 +1384,22 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
+      <c r="B27" s="1">
+        <v>3160300524</v>
       </c>
       <c r="C27" s="1">
-        <v>3160300524</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1354,10 +1407,10 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
@@ -1366,16 +1419,22 @@
       <c r="I27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+      <c r="B28" s="1">
+        <v>3170104736</v>
       </c>
       <c r="C28" s="1">
-        <v>3170104736</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1383,10 +1442,10 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
@@ -1395,16 +1454,22 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
+      <c r="B29" s="1">
+        <v>3140105133</v>
       </c>
       <c r="C29" s="1">
-        <v>3140105133</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1412,10 +1477,10 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
@@ -1424,16 +1489,22 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
+      <c r="B30" s="1">
+        <v>3170104721</v>
       </c>
       <c r="C30" s="1">
-        <v>3170104721</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1441,28 +1512,34 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
+      <c r="B31" s="1">
+        <v>3170104722</v>
       </c>
       <c r="C31" s="1">
-        <v>3170104722</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1470,28 +1547,34 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
+      <c r="B32" s="1">
+        <v>3170104729</v>
       </c>
       <c r="C32" s="1">
-        <v>3170104729</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1499,10 +1582,10 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="1">
@@ -1511,16 +1594,22 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
+      <c r="B33" s="1">
+        <v>3170104739</v>
       </c>
       <c r="C33" s="1">
-        <v>3170104739</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1528,10 +1617,10 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
         <v>1</v>
       </c>
       <c r="H33" s="1">
@@ -1540,16 +1629,22 @@
       <c r="I33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
+      <c r="B34" s="1">
+        <v>3170104740</v>
       </c>
       <c r="C34" s="1">
-        <v>3170104740</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1557,10 +1652,10 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34" s="1">
@@ -1569,16 +1664,22 @@
       <c r="I34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
+      <c r="B35" s="1">
+        <v>3180300005</v>
       </c>
       <c r="C35" s="1">
-        <v>3180300005</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1586,10 +1687,10 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1">
@@ -1598,16 +1699,22 @@
       <c r="I35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
+      <c r="B36" s="1">
+        <v>3180300006</v>
       </c>
       <c r="C36" s="1">
-        <v>3180300006</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1615,10 +1722,10 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1">
@@ -1627,16 +1734,22 @@
       <c r="I36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
+      <c r="B37" s="1">
+        <v>3180300179</v>
       </c>
       <c r="C37" s="1">
-        <v>3180300179</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1644,10 +1757,10 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37" s="1">
@@ -1656,16 +1769,22 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
+      <c r="B38" s="1">
+        <v>3180300261</v>
       </c>
       <c r="C38" s="1">
-        <v>3180300261</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1673,10 +1792,10 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38" s="1">
@@ -1685,16 +1804,22 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
+      <c r="B39" s="1">
+        <v>3180300268</v>
       </c>
       <c r="C39" s="1">
-        <v>3180300268</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1702,10 +1827,10 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1">
@@ -1714,16 +1839,22 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
+      <c r="B40" s="1">
+        <v>3180300316</v>
       </c>
       <c r="C40" s="1">
-        <v>3180300316</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -1731,10 +1862,10 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1">
@@ -1743,16 +1874,22 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
+      <c r="B41" s="1">
+        <v>3180300351</v>
       </c>
       <c r="C41" s="1">
-        <v>3180300351</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1760,10 +1897,10 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
       <c r="H41" s="1">
@@ -1772,16 +1909,22 @@
       <c r="I41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
+      <c r="B42" s="1">
+        <v>3180300361</v>
       </c>
       <c r="C42" s="1">
-        <v>3180300361</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1789,10 +1932,10 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
         <v>1</v>
       </c>
       <c r="H42" s="1">
@@ -1801,16 +1944,22 @@
       <c r="I42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
+      <c r="B43" s="1">
+        <v>3180300426</v>
       </c>
       <c r="C43" s="1">
-        <v>3180300426</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1818,10 +1967,10 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
         <v>1</v>
       </c>
       <c r="H43" s="1">
@@ -1830,45 +1979,57 @@
       <c r="I43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
+      <c r="B44" s="1">
+        <v>3180300456</v>
       </c>
       <c r="C44" s="1">
-        <v>3180300456</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1</v>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
+      <c r="B45" s="1">
+        <v>3180300547</v>
       </c>
       <c r="C45" s="1">
-        <v>3180300547</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1876,10 +2037,10 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
         <v>1</v>
       </c>
       <c r="H45" s="1">
@@ -1888,16 +2049,22 @@
       <c r="I45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
+      <c r="B46" s="1">
+        <v>3180300554</v>
       </c>
       <c r="C46" s="1">
-        <v>3180300554</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1905,11 +2072,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1</v>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -1917,16 +2084,22 @@
       <c r="I46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
+      <c r="B47" s="1">
+        <v>3180300569</v>
       </c>
       <c r="C47" s="1">
-        <v>3180300569</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1934,10 +2107,10 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
         <v>1</v>
       </c>
       <c r="H47" s="1">
@@ -1946,16 +2119,22 @@
       <c r="I47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
+      <c r="B48" s="1">
+        <v>3180300570</v>
       </c>
       <c r="C48" s="1">
-        <v>3180300570</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1963,10 +2142,10 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
         <v>1</v>
       </c>
       <c r="H48" s="1">
@@ -1975,16 +2154,22 @@
       <c r="I48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
+      <c r="B49" s="1">
+        <v>3180300618</v>
       </c>
       <c r="C49" s="1">
-        <v>3180300618</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1992,11 +2177,11 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2004,16 +2189,22 @@
       <c r="I49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
+      <c r="B50" s="1">
+        <v>3180300652</v>
       </c>
       <c r="C50" s="1">
-        <v>3180300652</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -2021,28 +2212,34 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>1</v>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
+      <c r="B51" s="1">
+        <v>3180300681</v>
       </c>
       <c r="C51" s="1">
-        <v>3180300681</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2050,10 +2247,10 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" s="1">
@@ -2062,16 +2259,22 @@
       <c r="I51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>11</v>
+      <c r="B52" s="1">
+        <v>3130300003</v>
       </c>
       <c r="C52" s="1">
-        <v>3130300003</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -2079,11 +2282,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
       </c>
       <c r="H52" s="1">
         <v>1</v>
@@ -2091,56 +2294,68 @@
       <c r="I52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
+      <c r="B53" s="1">
+        <v>3130300236</v>
       </c>
       <c r="C53" s="1">
-        <v>3130300236</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
+      <c r="B54" s="1">
+        <v>3130300302</v>
       </c>
       <c r="C54" s="1">
-        <v>3130300302</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5">
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <v>0</v>
       </c>
       <c r="H54" s="1">
@@ -2149,27 +2364,33 @@
       <c r="I54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>11</v>
+      <c r="B55" s="1">
+        <v>3140300198</v>
       </c>
       <c r="C55" s="1">
-        <v>3140300198</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
         <v>0</v>
       </c>
       <c r="H55" s="1">
@@ -2178,16 +2399,22 @@
       <c r="I55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
+      <c r="B56" s="1">
+        <v>3140300315</v>
       </c>
       <c r="C56" s="1">
-        <v>3140300315</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -2195,10 +2422,10 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
         <v>1</v>
       </c>
       <c r="H56" s="1">
@@ -2207,27 +2434,33 @@
       <c r="I56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="1">
+        <v>1</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>11</v>
+      <c r="B57" s="1">
+        <v>3150300270</v>
       </c>
       <c r="C57" s="1">
-        <v>3150300270</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
         <v>1</v>
       </c>
       <c r="H57" s="1">
@@ -2236,27 +2469,33 @@
       <c r="I57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
+      <c r="B58" s="1">
+        <v>3150300304</v>
       </c>
       <c r="C58" s="1">
-        <v>3150300304</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
         <v>0</v>
       </c>
       <c r="H58" s="1">
@@ -2265,16 +2504,22 @@
       <c r="I58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>11</v>
+      <c r="B59" s="1">
+        <v>3150300322</v>
       </c>
       <c r="C59" s="1">
-        <v>3150300322</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -2282,10 +2527,10 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
         <v>1</v>
       </c>
       <c r="H59" s="1">
@@ -2294,27 +2539,33 @@
       <c r="I59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>11</v>
+      <c r="B60" s="1">
+        <v>3160300005</v>
       </c>
       <c r="C60" s="1">
-        <v>3160300005</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
         <v>0</v>
       </c>
       <c r="H60" s="1">
@@ -2323,16 +2574,22 @@
       <c r="I60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>11</v>
+      <c r="B61" s="1">
+        <v>3160300044</v>
       </c>
       <c r="C61" s="1">
-        <v>3160300044</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -2340,10 +2597,10 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
         <v>1</v>
       </c>
       <c r="H61" s="1">
@@ -2352,16 +2609,22 @@
       <c r="I61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>11</v>
+      <c r="B62" s="1">
+        <v>3160300132</v>
       </c>
       <c r="C62" s="1">
-        <v>3160300132</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -2369,10 +2632,10 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
         <v>1</v>
       </c>
       <c r="H62" s="1">
@@ -2381,16 +2644,22 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>11</v>
+      <c r="B63" s="1">
+        <v>3160300184</v>
       </c>
       <c r="C63" s="1">
-        <v>3160300184</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2398,28 +2667,34 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
         <v>1</v>
       </c>
       <c r="H63" s="1">
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>11</v>
+      <c r="B64" s="1">
+        <v>3160300265</v>
       </c>
       <c r="C64" s="1">
-        <v>3160300265</v>
+        <v>1</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -2427,28 +2702,34 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
         <v>1</v>
       </c>
       <c r="H64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>11</v>
+      <c r="B65" s="1">
+        <v>3160300278</v>
       </c>
       <c r="C65" s="1">
-        <v>3160300278</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -2456,10 +2737,10 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
         <v>1</v>
       </c>
       <c r="H65" s="1">
@@ -2468,16 +2749,22 @@
       <c r="I65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>11</v>
+      <c r="B66" s="1">
+        <v>3160300283</v>
       </c>
       <c r="C66" s="1">
-        <v>3160300283</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -2485,10 +2772,10 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
         <v>1</v>
       </c>
       <c r="H66" s="1">
@@ -2497,27 +2784,33 @@
       <c r="I66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>11</v>
+      <c r="B67" s="1">
+        <v>3160300292</v>
       </c>
       <c r="C67" s="1">
-        <v>3160300292</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
         <v>1</v>
       </c>
       <c r="H67" s="1">
@@ -2526,27 +2819,33 @@
       <c r="I67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>11</v>
+      <c r="B68" s="1">
+        <v>3160300302</v>
       </c>
       <c r="C68" s="1">
-        <v>3160300302</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
         <v>1</v>
       </c>
       <c r="H68" s="1">
@@ -2555,27 +2854,33 @@
       <c r="I68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>11</v>
+      <c r="B69" s="1">
+        <v>3160300371</v>
       </c>
       <c r="C69" s="1">
-        <v>3160300371</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
         <v>0</v>
       </c>
       <c r="H69" s="1">
@@ -2584,16 +2889,22 @@
       <c r="I69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>11</v>
+      <c r="B70" s="1">
+        <v>3160300442</v>
       </c>
       <c r="C70" s="1">
-        <v>3160300442</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -2601,10 +2912,10 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
         <v>1</v>
       </c>
       <c r="H70" s="1">
@@ -2613,74 +2924,92 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
+      <c r="B71" s="1">
+        <v>3160300533</v>
       </c>
       <c r="C71" s="1">
-        <v>3160300533</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
       </c>
       <c r="H71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
+      <c r="B72" s="1">
+        <v>3170300009</v>
       </c>
       <c r="C72" s="1">
-        <v>3170300009</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
         <v>1</v>
       </c>
       <c r="H72" s="1">
         <v>1</v>
       </c>
       <c r="I72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>11</v>
+      <c r="B73" s="1">
+        <v>3170300245</v>
       </c>
       <c r="C73" s="1">
-        <v>3170300245</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -2688,10 +3017,10 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
         <v>0</v>
       </c>
       <c r="H73" s="1">
@@ -2700,16 +3029,22 @@
       <c r="I73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>11</v>
+      <c r="B74" s="1">
+        <v>3170300257</v>
       </c>
       <c r="C74" s="1">
-        <v>3170300257</v>
+        <v>0</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -2717,10 +3052,10 @@
       <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74" s="1">
-        <v>0</v>
-      </c>
-      <c r="G74" s="5">
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
         <v>0</v>
       </c>
       <c r="H74" s="1">
@@ -2729,16 +3064,22 @@
       <c r="I74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>11</v>
+      <c r="B75" s="1">
+        <v>3170300292</v>
       </c>
       <c r="C75" s="1">
-        <v>3170300292</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -2746,10 +3087,10 @@
       <c r="E75" s="1">
         <v>1</v>
       </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="5">
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
         <v>1</v>
       </c>
       <c r="H75" s="1">
@@ -2758,16 +3099,22 @@
       <c r="I75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>11</v>
+      <c r="B76" s="1">
+        <v>3170300318</v>
       </c>
       <c r="C76" s="1">
-        <v>3170300318</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -2775,10 +3122,10 @@
       <c r="E76" s="1">
         <v>0</v>
       </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
         <v>0</v>
       </c>
       <c r="H76" s="1">
@@ -2787,16 +3134,22 @@
       <c r="I76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>11</v>
+      <c r="B77" s="1">
+        <v>3170300363</v>
       </c>
       <c r="C77" s="1">
-        <v>3170300363</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2804,10 +3157,10 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="5">
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
         <v>1</v>
       </c>
       <c r="H77" s="1">
@@ -2816,16 +3169,22 @@
       <c r="I77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>11</v>
+      <c r="B78" s="1">
+        <v>3170300389</v>
       </c>
       <c r="C78" s="1">
-        <v>3170300389</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -2833,10 +3192,10 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
         <v>1</v>
       </c>
       <c r="H78" s="1">
@@ -2845,16 +3204,22 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
+      <c r="B79" s="1">
+        <v>3170300392</v>
       </c>
       <c r="C79" s="1">
-        <v>3170300392</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -2862,10 +3227,10 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="5">
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
         <v>1</v>
       </c>
       <c r="H79" s="1">
@@ -2874,16 +3239,22 @@
       <c r="I79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
+      <c r="B80" s="1">
+        <v>3170300425</v>
       </c>
       <c r="C80" s="1">
-        <v>3170300425</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2891,10 +3262,10 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-      <c r="G80" s="5">
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
         <v>1</v>
       </c>
       <c r="H80" s="1">
@@ -2903,45 +3274,57 @@
       <c r="I80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
+      <c r="B81" s="1">
+        <v>3170300489</v>
       </c>
       <c r="C81" s="1">
-        <v>3170300489</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-      <c r="G81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
         <v>1</v>
       </c>
       <c r="H81" s="1">
         <v>1</v>
       </c>
       <c r="I81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
+      <c r="B82" s="1">
+        <v>3170300510</v>
       </c>
       <c r="C82" s="1">
-        <v>3170300510</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2949,28 +3332,34 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="5">
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
         <v>1</v>
       </c>
       <c r="H82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
+      <c r="B83" s="1">
+        <v>3170300518</v>
       </c>
       <c r="C83" s="1">
-        <v>3170300518</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -2978,40 +3367,46 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
-      <c r="G83" s="5">
-        <v>1</v>
+      <c r="F83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
       </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
+      <c r="B84" s="1">
+        <v>3170300542</v>
       </c>
       <c r="C84" s="1">
-        <v>3170300542</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="1">
-        <v>1</v>
-      </c>
-      <c r="G84" s="5">
-        <v>0</v>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -3019,16 +3414,22 @@
       <c r="I84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>11</v>
+      <c r="B85" s="1">
+        <v>3170300623</v>
       </c>
       <c r="C85" s="1">
-        <v>3170300623</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -3036,28 +3437,34 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-      <c r="G85" s="5">
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
         <v>1</v>
       </c>
       <c r="H85" s="1">
         <v>1</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
+      <c r="B86" s="1">
+        <v>3170300673</v>
       </c>
       <c r="C86" s="1">
-        <v>3170300673</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -3065,57 +3472,69 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-      <c r="G86" s="5">
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
         <v>1</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>12</v>
+      <c r="B87" s="1">
+        <v>3140300089</v>
       </c>
       <c r="C87" s="1">
-        <v>3140300089</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="5">
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
         <v>1</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
       </c>
       <c r="I87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>12</v>
+      <c r="B88" s="1">
+        <v>3150300095</v>
       </c>
       <c r="C88" s="1">
-        <v>3150300095</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -3123,10 +3542,10 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-      <c r="G88" s="5">
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
         <v>1</v>
       </c>
       <c r="H88" s="1">
@@ -3135,16 +3554,22 @@
       <c r="I88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>12</v>
+      <c r="B89" s="1">
+        <v>3150300096</v>
       </c>
       <c r="C89" s="1">
-        <v>3150300096</v>
+        <v>0</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -3152,10 +3577,10 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
-      <c r="F89" s="1">
-        <v>0</v>
-      </c>
-      <c r="G89" s="5">
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
         <v>0</v>
       </c>
       <c r="H89" s="1">
@@ -3164,16 +3589,22 @@
       <c r="I89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>12</v>
+      <c r="B90" s="1">
+        <v>3150300098</v>
       </c>
       <c r="C90" s="1">
-        <v>3150300098</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -3181,10 +3612,10 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="5">
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
         <v>1</v>
       </c>
       <c r="H90" s="1">
@@ -3193,16 +3624,22 @@
       <c r="I90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>13</v>
+      <c r="B91" s="1">
+        <v>3170300597</v>
       </c>
       <c r="C91" s="1">
-        <v>3170300597</v>
+        <v>0</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -3210,10 +3647,10 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
-      <c r="G91" s="5">
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
         <v>0</v>
       </c>
       <c r="H91" s="1">
@@ -3222,16 +3659,22 @@
       <c r="I91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>14</v>
+      <c r="B92" s="1">
+        <v>3160300022</v>
       </c>
       <c r="C92" s="1">
-        <v>3160300022</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -3239,10 +3682,10 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="F92" s="1">
-        <v>0</v>
-      </c>
-      <c r="G92" s="5">
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
         <v>0</v>
       </c>
       <c r="H92" s="1">
@@ -3251,27 +3694,33 @@
       <c r="I92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>14</v>
+      <c r="B93" s="1">
+        <v>3160300226</v>
       </c>
       <c r="C93" s="1">
-        <v>3160300226</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-      <c r="G93" s="5">
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
         <v>1</v>
       </c>
       <c r="H93" s="1">
@@ -3280,16 +3729,22 @@
       <c r="I93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>14</v>
+      <c r="B94" s="1">
+        <v>3180300198</v>
       </c>
       <c r="C94" s="1">
-        <v>3180300198</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -3297,10 +3752,10 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5">
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
         <v>1</v>
       </c>
       <c r="H94" s="1">
@@ -3309,16 +3764,22 @@
       <c r="I94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>15</v>
+      <c r="B95" s="1">
+        <v>3150300191</v>
       </c>
       <c r="C95" s="1">
-        <v>3150300191</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -3326,10 +3787,10 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="5">
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1">
@@ -3338,16 +3799,22 @@
       <c r="I95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>16</v>
+      <c r="B96" s="1">
+        <v>3170300128</v>
       </c>
       <c r="C96" s="1">
-        <v>3170300128</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -3355,10 +3822,10 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
         <v>1</v>
       </c>
       <c r="H96" s="1">
@@ -3367,16 +3834,22 @@
       <c r="I96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>16</v>
+      <c r="B97" s="1">
+        <v>3180300651</v>
       </c>
       <c r="C97" s="1">
-        <v>3180300651</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -3384,10 +3857,10 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="5">
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
         <v>1</v>
       </c>
       <c r="H97" s="1">
@@ -3396,16 +3869,22 @@
       <c r="I97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>17</v>
+      <c r="B98" s="1">
+        <v>3180300243</v>
       </c>
       <c r="C98" s="1">
-        <v>3180300243</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -3413,10 +3892,10 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-      <c r="F98" s="1">
-        <v>1</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
         <v>1</v>
       </c>
       <c r="H98" s="1">
@@ -3425,16 +3904,22 @@
       <c r="I98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>18</v>
+      <c r="B99" s="1">
+        <v>3180300056</v>
       </c>
       <c r="C99" s="1">
-        <v>3180300056</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -3442,10 +3927,10 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-      <c r="G99" s="5">
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
         <v>1</v>
       </c>
       <c r="H99" s="1">
@@ -3454,16 +3939,22 @@
       <c r="I99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>18</v>
+      <c r="B100" s="1">
+        <v>3180300098</v>
       </c>
       <c r="C100" s="1">
-        <v>3180300098</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -3471,10 +3962,10 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="G100" s="5">
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
         <v>1</v>
       </c>
       <c r="H100" s="1">
@@ -3483,16 +3974,22 @@
       <c r="I100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>18</v>
+      <c r="B101" s="1">
+        <v>3180300172</v>
       </c>
       <c r="C101" s="1">
-        <v>3180300172</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
@@ -3500,10 +3997,10 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="5">
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
         <v>1</v>
       </c>
       <c r="H101" s="1">
@@ -3512,16 +4009,22 @@
       <c r="I101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>18</v>
+      <c r="B102" s="1">
+        <v>3180300173</v>
       </c>
       <c r="C102" s="1">
-        <v>3180300173</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -3529,10 +4032,10 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="5">
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
         <v>1</v>
       </c>
       <c r="H102" s="1">
@@ -3541,16 +4044,22 @@
       <c r="I102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>18</v>
+      <c r="B103" s="1">
+        <v>3180300215</v>
       </c>
       <c r="C103" s="1">
-        <v>3180300215</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -3558,10 +4067,10 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-      <c r="F103" s="1">
-        <v>1</v>
-      </c>
-      <c r="G103" s="5">
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
         <v>1</v>
       </c>
       <c r="H103" s="1">
@@ -3570,16 +4079,22 @@
       <c r="I103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>18</v>
+      <c r="B104" s="1">
+        <v>3180300252</v>
       </c>
       <c r="C104" s="1">
-        <v>3180300252</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -3587,10 +4102,10 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="F104" s="1">
-        <v>1</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
         <v>1</v>
       </c>
       <c r="H104" s="1">
@@ -3599,16 +4114,22 @@
       <c r="I104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>19</v>
+      <c r="B105" s="1">
+        <v>3150300330</v>
       </c>
       <c r="C105" s="1">
-        <v>3150300330</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -3616,10 +4137,10 @@
       <c r="E105" s="1">
         <v>1</v>
       </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="5">
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
         <v>1</v>
       </c>
       <c r="H105" s="1">
@@ -3628,27 +4149,33 @@
       <c r="I105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>19</v>
+      <c r="B106" s="1">
+        <v>3150300331</v>
       </c>
       <c r="C106" s="1">
-        <v>3150300331</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
       </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-      <c r="G106" s="5">
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
         <v>1</v>
       </c>
       <c r="H106" s="1">
@@ -3657,16 +4184,22 @@
       <c r="I106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>19</v>
+      <c r="B107" s="1">
+        <v>3160300011</v>
       </c>
       <c r="C107" s="1">
-        <v>3160300011</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -3674,10 +4207,10 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-      <c r="G107" s="5">
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
         <v>1</v>
       </c>
       <c r="H107" s="1">
@@ -3686,16 +4219,22 @@
       <c r="I107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>19</v>
+      <c r="B108" s="1">
+        <v>3160300519</v>
       </c>
       <c r="C108" s="1">
-        <v>3160300519</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
@@ -3703,11 +4242,11 @@
       <c r="E108" s="1">
         <v>1</v>
       </c>
-      <c r="F108" s="1">
-        <v>1</v>
-      </c>
-      <c r="G108" s="5">
-        <v>1</v>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -3715,16 +4254,22 @@
       <c r="I108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>20</v>
+      <c r="B109" s="1">
+        <v>3180300128</v>
       </c>
       <c r="C109" s="1">
-        <v>3180300128</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
@@ -3732,10 +4277,10 @@
       <c r="E109" s="1">
         <v>1</v>
       </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-      <c r="G109" s="5">
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
         <v>1</v>
       </c>
       <c r="H109" s="1">
@@ -3744,16 +4289,22 @@
       <c r="I109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>20</v>
+      <c r="B110" s="1">
+        <v>3180300216</v>
       </c>
       <c r="C110" s="1">
-        <v>3180300216</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -3761,10 +4312,10 @@
       <c r="E110" s="1">
         <v>1</v>
       </c>
-      <c r="F110" s="1">
-        <v>1</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
         <v>1</v>
       </c>
       <c r="H110" s="1">
@@ -3773,16 +4324,22 @@
       <c r="I110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="1">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>21</v>
+      <c r="B111" s="1">
+        <v>3150300108</v>
       </c>
       <c r="C111" s="1">
-        <v>3150300108</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
@@ -3790,10 +4347,10 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-      <c r="F111" s="1">
-        <v>1</v>
-      </c>
-      <c r="G111" s="5">
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
         <v>1</v>
       </c>
       <c r="H111" s="1">
@@ -3802,16 +4359,22 @@
       <c r="I111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>21</v>
+      <c r="B112" s="1">
+        <v>3150300109</v>
       </c>
       <c r="C112" s="1">
-        <v>3150300109</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -3819,28 +4382,34 @@
       <c r="E112" s="1">
         <v>1</v>
       </c>
-      <c r="F112" s="1">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5">
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
         <v>1</v>
       </c>
       <c r="H112" s="1">
         <v>1</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>21</v>
+      <c r="B113" s="1">
+        <v>3150300112</v>
       </c>
       <c r="C113" s="1">
-        <v>3150300112</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -3848,10 +4417,10 @@
       <c r="E113" s="1">
         <v>0</v>
       </c>
-      <c r="F113" s="1">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5">
+      <c r="F113" s="3">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
         <v>0</v>
       </c>
       <c r="H113" s="1">
@@ -3860,16 +4429,22 @@
       <c r="I113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>21</v>
+      <c r="B114" s="1">
+        <v>3160300163</v>
       </c>
       <c r="C114" s="1">
-        <v>3160300163</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -3877,10 +4452,10 @@
       <c r="E114" s="1">
         <v>1</v>
       </c>
-      <c r="F114" s="1">
-        <v>1</v>
-      </c>
-      <c r="G114" s="5">
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
         <v>1</v>
       </c>
       <c r="H114" s="1">
@@ -3889,16 +4464,22 @@
       <c r="I114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="1">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>21</v>
+      <c r="B115" s="1">
+        <v>3160300166</v>
       </c>
       <c r="C115" s="1">
-        <v>3160300166</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -3906,10 +4487,10 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-      <c r="F115" s="1">
-        <v>1</v>
-      </c>
-      <c r="G115" s="5">
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
         <v>1</v>
       </c>
       <c r="H115" s="1">
@@ -3918,16 +4499,22 @@
       <c r="I115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>21</v>
+      <c r="B116" s="1">
+        <v>3170300021</v>
       </c>
       <c r="C116" s="1">
-        <v>3170300021</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -3935,10 +4522,10 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-      <c r="F116" s="1">
-        <v>1</v>
-      </c>
-      <c r="G116" s="5">
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
         <v>1</v>
       </c>
       <c r="H116" s="1">
@@ -3947,16 +4534,22 @@
       <c r="I116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>21</v>
+      <c r="B117" s="1">
+        <v>3170300061</v>
       </c>
       <c r="C117" s="1">
-        <v>3170300061</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -3964,10 +4557,10 @@
       <c r="E117" s="1">
         <v>1</v>
       </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="G117" s="5">
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
         <v>1</v>
       </c>
       <c r="H117" s="1">
@@ -3976,16 +4569,22 @@
       <c r="I117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="1">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>21</v>
+      <c r="B118" s="1">
+        <v>3170300117</v>
       </c>
       <c r="C118" s="1">
-        <v>3170300117</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
@@ -3993,10 +4592,10 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="G118" s="5">
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
         <v>1</v>
       </c>
       <c r="H118" s="1">
@@ -4005,16 +4604,22 @@
       <c r="I118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>21</v>
+      <c r="B119" s="1">
+        <v>3170300254</v>
       </c>
       <c r="C119" s="1">
-        <v>3170300254</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
@@ -4022,28 +4627,34 @@
       <c r="E119" s="1">
         <v>1</v>
       </c>
-      <c r="F119" s="1">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5">
-        <v>0</v>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
       </c>
       <c r="H119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>21</v>
+      <c r="B120" s="1">
+        <v>3170300345</v>
       </c>
       <c r="C120" s="1">
-        <v>3170300345</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
@@ -4051,10 +4662,10 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="1">
-        <v>1</v>
-      </c>
-      <c r="G120" s="5">
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
         <v>1</v>
       </c>
       <c r="H120" s="1">
@@ -4063,16 +4674,22 @@
       <c r="I120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+      <c r="K120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>22</v>
+      <c r="B121" s="1">
+        <v>3150300123</v>
       </c>
       <c r="C121" s="1">
-        <v>3150300123</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
@@ -4080,28 +4697,34 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="1">
-        <v>1</v>
-      </c>
-      <c r="G121" s="5">
-        <v>1</v>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>23</v>
+      <c r="B122" s="1">
+        <v>3180300138</v>
       </c>
       <c r="C122" s="1">
-        <v>3180300138</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -4109,10 +4732,10 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-      <c r="F122" s="1">
-        <v>1</v>
-      </c>
-      <c r="G122" s="5">
+      <c r="F122" s="3">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
         <v>1</v>
       </c>
       <c r="H122" s="1">
@@ -4121,16 +4744,22 @@
       <c r="I122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>24</v>
+      <c r="B123" s="1">
+        <v>3150300218</v>
       </c>
       <c r="C123" s="1">
-        <v>3150300218</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -4138,10 +4767,10 @@
       <c r="E123" s="1">
         <v>0</v>
       </c>
-      <c r="F123" s="1">
-        <v>0</v>
-      </c>
-      <c r="G123" s="5">
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
         <v>0</v>
       </c>
       <c r="H123" s="1">
@@ -4150,16 +4779,22 @@
       <c r="I123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>25</v>
+      <c r="B124" s="1">
+        <v>3180300088</v>
       </c>
       <c r="C124" s="1">
-        <v>3180300088</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
@@ -4167,10 +4802,10 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="1">
-        <v>1</v>
-      </c>
-      <c r="G124" s="5">
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
         <v>1</v>
       </c>
       <c r="H124" s="1">
@@ -4179,16 +4814,22 @@
       <c r="I124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="1">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>26</v>
+      <c r="B125" s="1">
+        <v>3170300194</v>
       </c>
       <c r="C125" s="1">
-        <v>3170300194</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
@@ -4196,10 +4837,10 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-      <c r="F125" s="1">
-        <v>1</v>
-      </c>
-      <c r="G125" s="5">
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
         <v>1</v>
       </c>
       <c r="H125" s="1">
@@ -4208,16 +4849,22 @@
       <c r="I125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="1">
+        <v>1</v>
+      </c>
+      <c r="K125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>27</v>
+      <c r="B126" s="1">
+        <v>3180300258</v>
       </c>
       <c r="C126" s="1">
-        <v>3180300258</v>
+        <v>1</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
@@ -4225,10 +4872,10 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126" s="1">
-        <v>1</v>
-      </c>
-      <c r="G126" s="5">
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
         <v>1</v>
       </c>
       <c r="H126" s="1">
@@ -4237,16 +4884,22 @@
       <c r="I126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="1">
+        <v>1</v>
+      </c>
+      <c r="K126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>28</v>
+      <c r="B127" s="1">
+        <v>3170300321</v>
       </c>
       <c r="C127" s="1">
-        <v>3170300321</v>
+        <v>0</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -4254,10 +4907,10 @@
       <c r="E127" s="1">
         <v>0</v>
       </c>
-      <c r="F127" s="1">
-        <v>0</v>
-      </c>
-      <c r="G127" s="5">
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
         <v>0</v>
       </c>
       <c r="H127" s="1">
@@ -4266,16 +4919,22 @@
       <c r="I127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>29</v>
+      <c r="B128" s="1">
+        <v>3160100048</v>
       </c>
       <c r="C128" s="1">
-        <v>3160100048</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -4283,10 +4942,10 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-      <c r="F128" s="1">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5">
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
         <v>1</v>
       </c>
       <c r="H128" s="1">
@@ -4295,16 +4954,22 @@
       <c r="I128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>29</v>
+      <c r="B129" s="1">
+        <v>3160300495</v>
       </c>
       <c r="C129" s="1">
-        <v>3160300495</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
@@ -4312,10 +4977,10 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
-      <c r="F129" s="1">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5">
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
         <v>1</v>
       </c>
       <c r="H129" s="1">
@@ -4324,16 +4989,22 @@
       <c r="I129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="1">
+        <v>1</v>
+      </c>
+      <c r="K129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>29</v>
+      <c r="B130" s="1">
+        <v>3180300300</v>
       </c>
       <c r="C130" s="1">
-        <v>3180300300</v>
+        <v>1</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
@@ -4341,11 +5012,11 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
-      <c r="F130" s="1">
-        <v>1</v>
-      </c>
-      <c r="G130" s="5">
-        <v>1</v>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
       </c>
       <c r="H130" s="1">
         <v>0</v>
@@ -4353,27 +5024,33 @@
       <c r="I130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>30</v>
+      <c r="B131" s="1">
+        <v>3160300231</v>
       </c>
       <c r="C131" s="1">
-        <v>3160300231</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="1">
-        <v>0</v>
-      </c>
-      <c r="G131" s="5">
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
         <v>0</v>
       </c>
       <c r="H131" s="1">
@@ -4382,16 +5059,22 @@
       <c r="I131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>30</v>
+      <c r="B132" s="1">
+        <v>3160300258</v>
       </c>
       <c r="C132" s="1">
-        <v>3160300258</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -4399,10 +5082,10 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-      <c r="G132" s="5">
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
         <v>1</v>
       </c>
       <c r="H132" s="1">
@@ -4411,16 +5094,22 @@
       <c r="I132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>30</v>
+      <c r="B133" s="1">
+        <v>3160300531</v>
       </c>
       <c r="C133" s="1">
-        <v>3160300531</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
@@ -4428,10 +5117,10 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-      <c r="G133" s="5">
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1">
         <v>1</v>
       </c>
       <c r="H133" s="1">
@@ -4440,16 +5129,22 @@
       <c r="I133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="1">
+        <v>1</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>30</v>
+      <c r="B134" s="1">
+        <v>3170300139</v>
       </c>
       <c r="C134" s="1">
-        <v>3170300139</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
@@ -4457,10 +5152,10 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-      <c r="G134" s="5">
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
         <v>1</v>
       </c>
       <c r="H134" s="1">
@@ -4469,16 +5164,22 @@
       <c r="I134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="1">
+        <v>1</v>
+      </c>
+      <c r="K134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>30</v>
+      <c r="B135" s="1">
+        <v>3170300287</v>
       </c>
       <c r="C135" s="1">
-        <v>3170300287</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
@@ -4486,10 +5187,10 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-      <c r="G135" s="5">
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
         <v>1</v>
       </c>
       <c r="H135" s="1">
@@ -4498,16 +5199,22 @@
       <c r="I135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>30</v>
+      <c r="B136" s="1">
+        <v>3170300317</v>
       </c>
       <c r="C136" s="1">
-        <v>3170300317</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
@@ -4515,11 +5222,11 @@
       <c r="E136" s="1">
         <v>1</v>
       </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-      <c r="G136" s="5">
-        <v>0</v>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
       </c>
       <c r="H136" s="1">
         <v>1</v>
@@ -4527,16 +5234,22 @@
       <c r="I136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="1">
+        <v>1</v>
+      </c>
+      <c r="K136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>30</v>
+      <c r="B137" s="1">
+        <v>3170300419</v>
       </c>
       <c r="C137" s="1">
-        <v>3170300419</v>
+        <v>1</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -4544,10 +5257,10 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-      <c r="F137" s="1">
-        <v>1</v>
-      </c>
-      <c r="G137" s="5">
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1">
         <v>1</v>
       </c>
       <c r="H137" s="1">
@@ -4556,28 +5269,34 @@
       <c r="I137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>30</v>
+      <c r="B138" s="1">
+        <v>3170300514</v>
       </c>
       <c r="C138" s="1">
-        <v>3170300514</v>
+        <v>0</v>
       </c>
       <c r="D138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
       </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
-      <c r="G138" s="5">
-        <v>0</v>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
       </c>
       <c r="H138" s="1">
         <v>1</v>
@@ -4585,16 +5304,22 @@
       <c r="I138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="1">
+        <v>1</v>
+      </c>
+      <c r="K138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>31</v>
+      <c r="B139" s="1">
+        <v>3150105412</v>
       </c>
       <c r="C139" s="1">
-        <v>3150105412</v>
+        <v>1</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
@@ -4602,10 +5327,10 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-      <c r="G139" s="5">
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
         <v>1</v>
       </c>
       <c r="H139" s="1">
@@ -4614,16 +5339,22 @@
       <c r="I139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="1">
+        <v>1</v>
+      </c>
+      <c r="K139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>31</v>
+      <c r="B140" s="1">
+        <v>3170104678</v>
       </c>
       <c r="C140" s="1">
-        <v>3170104678</v>
+        <v>1</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -4631,10 +5362,10 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-      <c r="F140" s="1">
-        <v>1</v>
-      </c>
-      <c r="G140" s="5">
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1">
         <v>1</v>
       </c>
       <c r="H140" s="1">
@@ -4643,16 +5374,22 @@
       <c r="I140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="1">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>31</v>
+      <c r="B141" s="1">
+        <v>3170300613</v>
       </c>
       <c r="C141" s="1">
-        <v>3170300613</v>
+        <v>1</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
@@ -4660,10 +5397,10 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="1">
-        <v>1</v>
-      </c>
-      <c r="G141" s="5">
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
         <v>1</v>
       </c>
       <c r="H141" s="1">
@@ -4672,16 +5409,22 @@
       <c r="I141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="1">
+        <v>1</v>
+      </c>
+      <c r="K141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>31</v>
+      <c r="B142" s="1">
+        <v>3170300616</v>
       </c>
       <c r="C142" s="1">
-        <v>3170300616</v>
+        <v>1</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -4689,10 +5432,10 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="G142" s="5">
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1">
         <v>1</v>
       </c>
       <c r="H142" s="1">
@@ -4701,45 +5444,57 @@
       <c r="I142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="1">
+        <v>1</v>
+      </c>
+      <c r="K142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>31</v>
+      <c r="B143" s="1">
+        <v>3170300675</v>
       </c>
       <c r="C143" s="1">
-        <v>3170300675</v>
+        <v>0</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
       </c>
-      <c r="F143" s="1">
-        <v>1</v>
-      </c>
-      <c r="G143" s="5">
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1">
         <v>1</v>
       </c>
       <c r="H143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>32</v>
+      <c r="B144" s="1">
+        <v>3170300624</v>
       </c>
       <c r="C144" s="1">
-        <v>3170300624</v>
+        <v>1</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
@@ -4747,10 +5502,10 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="G144" s="5">
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
         <v>1</v>
       </c>
       <c r="H144" s="1">
@@ -4759,16 +5514,22 @@
       <c r="I144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="1">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>33</v>
+      <c r="B145" s="1">
+        <v>3180300043</v>
       </c>
       <c r="C145" s="1">
-        <v>3180300043</v>
+        <v>1</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
@@ -4776,10 +5537,10 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="G145" s="5">
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
         <v>1</v>
       </c>
       <c r="H145" s="1">
@@ -4788,16 +5549,22 @@
       <c r="I145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>34</v>
+      <c r="B146" s="1">
+        <v>3160300286</v>
       </c>
       <c r="C146" s="1">
-        <v>3160300286</v>
+        <v>1</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -4805,28 +5572,34 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="F146" s="1">
-        <v>1</v>
-      </c>
-      <c r="G146" s="5">
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
         <v>1</v>
       </c>
       <c r="H146" s="1">
         <v>1</v>
       </c>
       <c r="I146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>34</v>
+      <c r="B147" s="1">
+        <v>3180300153</v>
       </c>
       <c r="C147" s="1">
-        <v>3180300153</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -4834,10 +5607,10 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F147" s="1">
-        <v>1</v>
-      </c>
-      <c r="G147" s="5">
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
         <v>1</v>
       </c>
       <c r="H147" s="1">
@@ -4846,16 +5619,22 @@
       <c r="I147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="1">
+        <v>1</v>
+      </c>
+      <c r="K147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>35</v>
+      <c r="B148" s="1">
+        <v>3180300229</v>
       </c>
       <c r="C148" s="1">
-        <v>3180300229</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -4863,10 +5642,10 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-      <c r="F148" s="1">
-        <v>1</v>
-      </c>
-      <c r="G148" s="5">
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
         <v>1</v>
       </c>
       <c r="H148" s="1">
@@ -4875,16 +5654,22 @@
       <c r="I148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="1">
+        <v>1</v>
+      </c>
+      <c r="K148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>36</v>
+      <c r="B149" s="1">
+        <v>3180300058</v>
       </c>
       <c r="C149" s="1">
-        <v>3180300058</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
@@ -4892,10 +5677,10 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="1">
-        <v>1</v>
-      </c>
-      <c r="G149" s="5">
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1">
         <v>1</v>
       </c>
       <c r="H149" s="1">
@@ -4904,16 +5689,22 @@
       <c r="I149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="1">
+        <v>1</v>
+      </c>
+      <c r="K149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>37</v>
+      <c r="B150" s="1">
+        <v>3180300054</v>
       </c>
       <c r="C150" s="1">
-        <v>3180300054</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
@@ -4921,28 +5712,34 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="1">
-        <v>1</v>
-      </c>
-      <c r="G150" s="5">
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="1">
         <v>1</v>
       </c>
       <c r="H150" s="1">
         <v>1</v>
       </c>
       <c r="I150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>37</v>
+      <c r="B151" s="1">
+        <v>3180300222</v>
       </c>
       <c r="C151" s="1">
-        <v>3180300222</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -4950,10 +5747,10 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-      <c r="F151" s="1">
-        <v>1</v>
-      </c>
-      <c r="G151" s="5">
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="1">
         <v>1</v>
       </c>
       <c r="H151" s="1">
@@ -4962,16 +5759,22 @@
       <c r="I151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="1">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>38</v>
+      <c r="B152" s="1">
+        <v>3180300598</v>
       </c>
       <c r="C152" s="1">
-        <v>3180300598</v>
+        <v>1</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -4979,11 +5782,11 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="1">
-        <v>1</v>
-      </c>
-      <c r="G152" s="5">
-        <v>1</v>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
@@ -4991,16 +5794,22 @@
       <c r="I152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>39</v>
+      <c r="B153" s="1">
+        <v>3150300346</v>
       </c>
       <c r="C153" s="1">
-        <v>3150300346</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
@@ -5008,10 +5817,10 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-      <c r="F153" s="1">
-        <v>1</v>
-      </c>
-      <c r="G153" s="5">
+      <c r="F153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G153" s="1">
         <v>1</v>
       </c>
       <c r="H153" s="1">
@@ -5020,16 +5829,22 @@
       <c r="I153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="1">
+        <v>1</v>
+      </c>
+      <c r="K153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>163</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>11</v>
+      <c r="B154" s="1">
+        <v>3160300201</v>
       </c>
       <c r="C154" s="1">
-        <v>3160300201</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
@@ -5037,10 +5852,10 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-      <c r="F154" s="1">
-        <v>1</v>
-      </c>
-      <c r="G154" s="5">
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="1">
         <v>1</v>
       </c>
       <c r="H154" s="1">
@@ -5049,21 +5864,31 @@
       <c r="I154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C155" s="3">
+      <c r="J154" s="1">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="2">
         <v>3160100049</v>
       </c>
-      <c r="D155" s="4">
-        <v>1</v>
-      </c>
-      <c r="E155" s="3">
+      <c r="C155" s="5">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2">
         <v>1</v>
       </c>
       <c r="F155" s="3">
         <v>1</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="1">
         <v>1</v>
       </c>
       <c r="H155" s="1">
@@ -5072,33 +5897,48 @@
       <c r="I155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C156" s="3">
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="2">
         <v>3150100008</v>
       </c>
-      <c r="D156" s="4">
-        <v>1</v>
-      </c>
-      <c r="E156" s="3">
+      <c r="C156" s="5">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1</v>
+      </c>
+      <c r="E156" s="2">
         <v>1</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="1">
         <v>1</v>
       </c>
       <c r="H156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/作业上交情况.xlsx
+++ b/files/作业上交情况.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen\Desktop\线性代数导论\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF59F030-8FCE-446A-A423-81841C80D985}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69236CAA-259E-47D2-8047-FB52DBE779E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ABC77B58-3A10-441C-94D9-9C793CD6E7B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8CB082B2-CD43-445B-A559-660350ACEEDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>原序号</t>
   </si>
@@ -68,6 +68,22 @@
   </si>
   <si>
     <t>平时9</t>
+  </si>
+  <si>
+    <t>平时10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,13 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6398CB43-3400-463A-BD42-76543622033C}">
-  <dimension ref="A1:K156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E493A20-9A45-4864-A02C-13BC465E88FD}">
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +525,20 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -532,7 +554,7 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -550,8 +572,20 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -567,7 +601,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -585,8 +619,20 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -602,7 +648,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -620,8 +666,20 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -637,7 +695,7 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -655,8 +713,20 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -672,7 +742,7 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -690,8 +760,20 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -707,7 +789,7 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -725,8 +807,20 @@
       <c r="K7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -742,7 +836,7 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -760,8 +854,20 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -777,7 +883,7 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="1">
@@ -795,8 +901,20 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -812,7 +930,7 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="1">
@@ -830,8 +948,20 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -847,7 +977,7 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="1">
@@ -865,8 +995,20 @@
       <c r="K11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -882,7 +1024,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -900,8 +1042,20 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -917,7 +1071,7 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="1">
@@ -935,8 +1089,20 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -952,7 +1118,7 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -970,8 +1136,20 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -987,7 +1165,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" s="1">
@@ -1005,8 +1183,20 @@
       <c r="K15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1022,7 +1212,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -1040,8 +1230,20 @@
       <c r="K16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1057,7 +1259,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1075,8 +1277,20 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1092,7 +1306,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1110,8 +1324,20 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1127,7 +1353,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1145,8 +1371,20 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1162,7 +1400,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -1180,8 +1418,20 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1197,7 +1447,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="1">
@@ -1215,8 +1465,20 @@
       <c r="K21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1232,7 +1494,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -1250,8 +1512,20 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1267,7 +1541,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -1285,8 +1559,20 @@
       <c r="K23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1302,7 +1588,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1320,8 +1606,20 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1337,7 +1635,7 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="1">
@@ -1355,8 +1653,20 @@
       <c r="K25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1372,7 +1682,7 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" s="1">
@@ -1390,8 +1700,20 @@
       <c r="K26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1407,7 +1729,7 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="1">
@@ -1425,8 +1747,20 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1442,7 +1776,7 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -1460,8 +1794,20 @@
       <c r="K28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1477,7 +1823,7 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="1">
@@ -1495,8 +1841,20 @@
       <c r="K29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1512,7 +1870,7 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -1530,8 +1888,20 @@
       <c r="K30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1547,7 +1917,7 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="1">
@@ -1565,8 +1935,20 @@
       <c r="K31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1582,7 +1964,7 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -1600,8 +1982,20 @@
       <c r="K32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1617,7 +2011,7 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="1">
@@ -1635,8 +2029,20 @@
       <c r="K33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1652,7 +2058,7 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -1670,8 +2076,20 @@
       <c r="K34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1687,7 +2105,7 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="1">
@@ -1705,8 +2123,20 @@
       <c r="K35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1722,7 +2152,7 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" s="1">
@@ -1740,8 +2170,20 @@
       <c r="K36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1757,7 +2199,7 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" s="1">
@@ -1775,8 +2217,20 @@
       <c r="K37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1792,7 +2246,7 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" s="1">
@@ -1810,8 +2264,20 @@
       <c r="K38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1827,7 +2293,7 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" s="1">
@@ -1845,8 +2311,20 @@
       <c r="K39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1862,7 +2340,7 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" s="1">
@@ -1880,8 +2358,20 @@
       <c r="K40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1897,7 +2387,7 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="1">
@@ -1915,8 +2405,20 @@
       <c r="K41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1932,7 +2434,7 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -1950,8 +2452,20 @@
       <c r="K42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1967,7 +2481,7 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="1">
@@ -1985,8 +2499,20 @@
       <c r="K43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2002,7 +2528,7 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" s="1">
@@ -2020,8 +2546,20 @@
       <c r="K44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2037,7 +2575,7 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" s="1">
@@ -2055,8 +2593,20 @@
       <c r="K45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2072,7 +2622,7 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" s="1">
@@ -2085,13 +2635,25 @@
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2107,7 +2669,7 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" s="1">
@@ -2125,8 +2687,20 @@
       <c r="K47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2142,7 +2716,7 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" s="1">
@@ -2160,8 +2734,20 @@
       <c r="K48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2177,7 +2763,7 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="1">
@@ -2195,8 +2781,20 @@
       <c r="K49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2212,7 +2810,7 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" s="1">
@@ -2230,8 +2828,20 @@
       <c r="K50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2247,7 +2857,7 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" s="1">
@@ -2265,8 +2875,20 @@
       <c r="K51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2282,7 +2904,7 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" s="1">
@@ -2298,10 +2920,22 @@
         <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2317,7 +2951,7 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" s="1">
@@ -2330,13 +2964,25 @@
         <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2344,7 +2990,7 @@
         <v>3130300302</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2352,7 +2998,7 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54">
         <v>0</v>
       </c>
       <c r="G54" s="1">
@@ -2370,8 +3016,20 @@
       <c r="K54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2387,7 +3045,7 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" s="1">
@@ -2405,8 +3063,20 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2422,7 +3092,7 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="1">
@@ -2440,8 +3110,20 @@
       <c r="K56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2457,7 +3139,7 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" s="1">
@@ -2475,8 +3157,20 @@
       <c r="K57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2492,7 +3186,7 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58">
         <v>0</v>
       </c>
       <c r="G58" s="1">
@@ -2510,8 +3204,20 @@
       <c r="K58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2527,7 +3233,7 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" s="1">
@@ -2545,8 +3251,20 @@
       <c r="K59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2562,7 +3280,7 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" s="1">
@@ -2580,8 +3298,20 @@
       <c r="K60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2597,7 +3327,7 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61">
         <v>1</v>
       </c>
       <c r="G61" s="1">
@@ -2615,8 +3345,20 @@
       <c r="K61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2632,7 +3374,7 @@
       <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" s="1">
@@ -2650,8 +3392,20 @@
       <c r="K62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2667,7 +3421,7 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63">
         <v>1</v>
       </c>
       <c r="G63" s="1">
@@ -2685,8 +3439,20 @@
       <c r="K63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -2702,7 +3468,7 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64">
         <v>1</v>
       </c>
       <c r="G64" s="1">
@@ -2720,8 +3486,20 @@
       <c r="K64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -2737,7 +3515,7 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" s="1">
@@ -2755,8 +3533,20 @@
       <c r="K65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -2772,7 +3562,7 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" s="1">
@@ -2790,8 +3580,20 @@
       <c r="K66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -2807,7 +3609,7 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67">
         <v>1</v>
       </c>
       <c r="G67" s="1">
@@ -2825,8 +3627,20 @@
       <c r="K67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -2842,7 +3656,7 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" s="1">
@@ -2860,8 +3674,20 @@
       <c r="K68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -2877,7 +3703,7 @@
       <c r="E69" s="1">
         <v>0</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" s="1">
@@ -2895,8 +3721,20 @@
       <c r="K69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -2912,7 +3750,7 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70">
         <v>1</v>
       </c>
       <c r="G70" s="1">
@@ -2930,8 +3768,20 @@
       <c r="K70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -2947,7 +3797,7 @@
       <c r="E71" s="1">
         <v>1</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71">
         <v>1</v>
       </c>
       <c r="G71" s="1">
@@ -2963,10 +3813,22 @@
         <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -2982,7 +3844,7 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" s="1">
@@ -2992,16 +3854,28 @@
         <v>1</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -3017,7 +3891,7 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73">
         <v>0</v>
       </c>
       <c r="G73" s="1">
@@ -3027,16 +3901,28 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -3052,7 +3938,7 @@
       <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74">
         <v>0</v>
       </c>
       <c r="G74" s="1">
@@ -3070,8 +3956,20 @@
       <c r="K74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -3087,7 +3985,7 @@
       <c r="E75" s="1">
         <v>1</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" s="1">
@@ -3105,8 +4003,20 @@
       <c r="K75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -3122,7 +4032,7 @@
       <c r="E76" s="1">
         <v>0</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76">
         <v>0</v>
       </c>
       <c r="G76" s="1">
@@ -3140,8 +4050,20 @@
       <c r="K76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -3157,7 +4079,7 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77">
         <v>1</v>
       </c>
       <c r="G77" s="1">
@@ -3175,8 +4097,20 @@
       <c r="K77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -3192,7 +4126,7 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78">
         <v>1</v>
       </c>
       <c r="G78" s="1">
@@ -3210,8 +4144,20 @@
       <c r="K78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -3227,7 +4173,7 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79">
         <v>1</v>
       </c>
       <c r="G79" s="1">
@@ -3245,8 +4191,20 @@
       <c r="K79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -3262,7 +4220,7 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" s="1">
@@ -3280,8 +4238,20 @@
       <c r="K80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="1">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -3297,7 +4267,7 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" s="1">
@@ -3315,8 +4285,20 @@
       <c r="K81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -3332,7 +4314,7 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" s="1">
@@ -3350,8 +4332,20 @@
       <c r="K82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -3367,7 +4361,7 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" s="1">
@@ -3385,8 +4379,20 @@
       <c r="K83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -3402,7 +4408,7 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84">
         <v>0</v>
       </c>
       <c r="G84" s="1">
@@ -3420,8 +4426,20 @@
       <c r="K84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -3437,7 +4455,7 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" s="1">
@@ -3455,8 +4473,20 @@
       <c r="K85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -3472,7 +4502,7 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86">
         <v>1</v>
       </c>
       <c r="G86" s="1">
@@ -3490,8 +4520,20 @@
       <c r="K86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -3507,7 +4549,7 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87">
         <v>1</v>
       </c>
       <c r="G87" s="1">
@@ -3525,8 +4567,20 @@
       <c r="K87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -3542,7 +4596,7 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" s="1">
@@ -3560,8 +4614,20 @@
       <c r="K88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -3577,7 +4643,7 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" s="1">
@@ -3595,8 +4661,20 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -3612,7 +4690,7 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90">
         <v>1</v>
       </c>
       <c r="G90" s="1">
@@ -3630,8 +4708,20 @@
       <c r="K90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -3647,7 +4737,7 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91">
         <v>0</v>
       </c>
       <c r="G91" s="1">
@@ -3665,8 +4755,20 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -3682,7 +4784,7 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" s="1">
@@ -3700,8 +4802,20 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -3717,7 +4831,7 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" s="1">
@@ -3735,8 +4849,20 @@
       <c r="K93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -3752,7 +4878,7 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94">
         <v>1</v>
       </c>
       <c r="G94" s="1">
@@ -3770,8 +4896,20 @@
       <c r="K94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -3787,7 +4925,7 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" s="1">
@@ -3805,8 +4943,20 @@
       <c r="K95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -3822,7 +4972,7 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>1</v>
       </c>
       <c r="G96" s="1">
@@ -3840,8 +4990,20 @@
       <c r="K96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -3857,7 +5019,7 @@
       <c r="E97" s="1">
         <v>1</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" s="1">
@@ -3873,10 +5035,22 @@
         <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -3892,7 +5066,7 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" s="1">
@@ -3910,8 +5084,20 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -3927,7 +5113,7 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" s="1">
@@ -3943,10 +5129,22 @@
         <v>1</v>
       </c>
       <c r="K99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -3962,7 +5160,7 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" s="1">
@@ -3980,8 +5178,20 @@
       <c r="K100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -3997,7 +5207,7 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" s="1">
@@ -4015,8 +5225,20 @@
       <c r="K101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -4032,7 +5254,7 @@
       <c r="E102" s="1">
         <v>1</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102">
         <v>1</v>
       </c>
       <c r="G102" s="1">
@@ -4050,8 +5272,20 @@
       <c r="K102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -4067,7 +5301,7 @@
       <c r="E103" s="1">
         <v>1</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103">
         <v>1</v>
       </c>
       <c r="G103" s="1">
@@ -4085,8 +5319,20 @@
       <c r="K103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -4102,7 +5348,7 @@
       <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>1</v>
       </c>
       <c r="G104" s="1">
@@ -4120,8 +5366,20 @@
       <c r="K104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -4137,7 +5395,7 @@
       <c r="E105" s="1">
         <v>1</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105">
         <v>1</v>
       </c>
       <c r="G105" s="1">
@@ -4155,8 +5413,20 @@
       <c r="K105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -4172,7 +5442,7 @@
       <c r="E106" s="1">
         <v>1</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" s="1">
@@ -4190,8 +5460,20 @@
       <c r="K106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1</v>
+      </c>
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -4207,7 +5489,7 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107">
         <v>1</v>
       </c>
       <c r="G107" s="1">
@@ -4225,8 +5507,20 @@
       <c r="K107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -4242,7 +5536,7 @@
       <c r="E108" s="1">
         <v>1</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108">
         <v>1</v>
       </c>
       <c r="G108" s="1">
@@ -4260,8 +5554,20 @@
       <c r="K108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -4277,7 +5583,7 @@
       <c r="E109" s="1">
         <v>1</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109">
         <v>1</v>
       </c>
       <c r="G109" s="1">
@@ -4295,8 +5601,20 @@
       <c r="K109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -4312,7 +5630,7 @@
       <c r="E110" s="1">
         <v>1</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" s="1">
@@ -4330,8 +5648,20 @@
       <c r="K110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -4347,7 +5677,7 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111">
         <v>1</v>
       </c>
       <c r="G111" s="1">
@@ -4365,8 +5695,20 @@
       <c r="K111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="1">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
+        <v>1</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -4382,7 +5724,7 @@
       <c r="E112" s="1">
         <v>1</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112">
         <v>1</v>
       </c>
       <c r="G112" s="1">
@@ -4400,8 +5742,20 @@
       <c r="K112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="1">
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -4417,7 +5771,7 @@
       <c r="E113" s="1">
         <v>0</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" s="1">
@@ -4435,8 +5789,20 @@
       <c r="K113" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="1">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -4452,7 +5818,7 @@
       <c r="E114" s="1">
         <v>1</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114">
         <v>1</v>
       </c>
       <c r="G114" s="1">
@@ -4470,8 +5836,20 @@
       <c r="K114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -4487,7 +5865,7 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" s="1">
@@ -4505,8 +5883,20 @@
       <c r="K115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1">
+        <v>1</v>
+      </c>
+      <c r="N115" s="1">
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -4522,7 +5912,7 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116">
         <v>1</v>
       </c>
       <c r="G116" s="1">
@@ -4540,8 +5930,20 @@
       <c r="K116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="1">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -4557,7 +5959,7 @@
       <c r="E117" s="1">
         <v>1</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" s="1">
@@ -4575,8 +5977,20 @@
       <c r="K117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="1">
+        <v>1</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -4592,7 +6006,7 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" s="1">
@@ -4610,8 +6024,20 @@
       <c r="K118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="1">
+        <v>1</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -4627,7 +6053,7 @@
       <c r="E119" s="1">
         <v>1</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" s="1">
@@ -4645,8 +6071,20 @@
       <c r="K119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="1">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -4662,7 +6100,7 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" s="1">
@@ -4680,8 +6118,20 @@
       <c r="K120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+      <c r="O120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -4697,7 +6147,7 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" s="1">
@@ -4715,8 +6165,20 @@
       <c r="K121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -4732,7 +6194,7 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" s="1">
@@ -4750,8 +6212,20 @@
       <c r="K122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="1">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1">
+        <v>1</v>
+      </c>
+      <c r="O122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -4767,7 +6241,7 @@
       <c r="E123" s="1">
         <v>0</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123">
         <v>0</v>
       </c>
       <c r="G123" s="1">
@@ -4785,8 +6259,20 @@
       <c r="K123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -4802,7 +6288,7 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" s="1">
@@ -4820,8 +6306,20 @@
       <c r="K124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1">
+        <v>1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -4837,7 +6335,7 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" s="1">
@@ -4855,8 +6353,20 @@
       <c r="K125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="1">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -4872,7 +6382,7 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126">
         <v>1</v>
       </c>
       <c r="G126" s="1">
@@ -4890,8 +6400,20 @@
       <c r="K126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="1">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -4907,7 +6429,7 @@
       <c r="E127" s="1">
         <v>0</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127">
         <v>0</v>
       </c>
       <c r="G127" s="1">
@@ -4925,8 +6447,20 @@
       <c r="K127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -4942,7 +6476,7 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128">
         <v>1</v>
       </c>
       <c r="G128" s="1">
@@ -4960,8 +6494,20 @@
       <c r="K128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -4977,7 +6523,7 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129">
         <v>1</v>
       </c>
       <c r="G129" s="1">
@@ -4995,8 +6541,20 @@
       <c r="K129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="1">
+        <v>1</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -5012,7 +6570,7 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" s="1">
@@ -5030,8 +6588,20 @@
       <c r="K130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -5047,7 +6617,7 @@
       <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131">
         <v>0</v>
       </c>
       <c r="G131" s="1">
@@ -5065,8 +6635,20 @@
       <c r="K131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -5082,7 +6664,7 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" s="1">
@@ -5100,8 +6682,20 @@
       <c r="K132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1">
+        <v>1</v>
+      </c>
+      <c r="M132" s="1">
+        <v>1</v>
+      </c>
+      <c r="N132" s="1">
+        <v>1</v>
+      </c>
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -5117,7 +6711,7 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" s="1">
@@ -5135,8 +6729,20 @@
       <c r="K133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1">
+        <v>1</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -5152,7 +6758,7 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" s="1">
@@ -5170,8 +6776,20 @@
       <c r="K134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -5187,7 +6805,7 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" s="1">
@@ -5203,10 +6821,22 @@
         <v>0</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -5222,7 +6852,7 @@
       <c r="E136" s="1">
         <v>1</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136">
         <v>0</v>
       </c>
       <c r="G136" s="1">
@@ -5240,8 +6870,20 @@
       <c r="K136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="1">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -5257,7 +6899,7 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" s="1">
@@ -5275,8 +6917,20 @@
       <c r="K137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="1">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1">
+        <v>1</v>
+      </c>
+      <c r="N137" s="1">
+        <v>1</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -5292,7 +6946,7 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138">
         <v>0</v>
       </c>
       <c r="G138" s="1">
@@ -5310,8 +6964,20 @@
       <c r="K138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1">
+        <v>1</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -5327,7 +6993,7 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139">
         <v>1</v>
       </c>
       <c r="G139" s="1">
@@ -5345,8 +7011,20 @@
       <c r="K139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -5362,7 +7040,7 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140">
         <v>1</v>
       </c>
       <c r="G140" s="1">
@@ -5380,8 +7058,20 @@
       <c r="K140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1">
+        <v>1</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -5397,7 +7087,7 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141">
         <v>1</v>
       </c>
       <c r="G141" s="1">
@@ -5415,8 +7105,20 @@
       <c r="K141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1">
+        <v>1</v>
+      </c>
+      <c r="M141" s="1">
+        <v>1</v>
+      </c>
+      <c r="N141" s="1">
+        <v>1</v>
+      </c>
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -5432,7 +7134,7 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142">
         <v>1</v>
       </c>
       <c r="G142" s="1">
@@ -5450,8 +7152,20 @@
       <c r="K142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+      <c r="N142" s="1">
+        <v>1</v>
+      </c>
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -5467,7 +7181,7 @@
       <c r="E143" s="1">
         <v>1</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143">
         <v>1</v>
       </c>
       <c r="G143" s="1">
@@ -5485,8 +7199,20 @@
       <c r="K143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1">
+        <v>0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -5502,7 +7228,7 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144">
         <v>1</v>
       </c>
       <c r="G144" s="1">
@@ -5520,8 +7246,20 @@
       <c r="K144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -5537,7 +7275,7 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145">
         <v>1</v>
       </c>
       <c r="G145" s="1">
@@ -5555,8 +7293,20 @@
       <c r="K145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>1</v>
+      </c>
+      <c r="N145" s="1">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -5572,7 +7322,7 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146">
         <v>1</v>
       </c>
       <c r="G146" s="1">
@@ -5590,8 +7340,20 @@
       <c r="K146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1">
+        <v>1</v>
+      </c>
+      <c r="N146" s="1">
+        <v>1</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -5607,7 +7369,7 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147">
         <v>1</v>
       </c>
       <c r="G147" s="1">
@@ -5625,8 +7387,20 @@
       <c r="K147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="1">
+        <v>1</v>
+      </c>
+      <c r="M147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="1">
+        <v>1</v>
+      </c>
+      <c r="O147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -5642,7 +7416,7 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148">
         <v>1</v>
       </c>
       <c r="G148" s="1">
@@ -5660,8 +7434,20 @@
       <c r="K148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="1">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1">
+        <v>1</v>
+      </c>
+      <c r="N148" s="1">
+        <v>1</v>
+      </c>
+      <c r="O148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -5677,7 +7463,7 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149">
         <v>1</v>
       </c>
       <c r="G149" s="1">
@@ -5695,8 +7481,20 @@
       <c r="K149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="1">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1</v>
+      </c>
+      <c r="N149" s="1">
+        <v>1</v>
+      </c>
+      <c r="O149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -5712,7 +7510,7 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150">
         <v>1</v>
       </c>
       <c r="G150" s="1">
@@ -5730,8 +7528,20 @@
       <c r="K150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="1">
+        <v>1</v>
+      </c>
+      <c r="M150" s="1">
+        <v>1</v>
+      </c>
+      <c r="N150" s="1">
+        <v>1</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -5747,7 +7557,7 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151">
         <v>1</v>
       </c>
       <c r="G151" s="1">
@@ -5765,8 +7575,20 @@
       <c r="K151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="1">
+        <v>1</v>
+      </c>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>1</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -5782,7 +7604,7 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152">
         <v>1</v>
       </c>
       <c r="G152" s="1">
@@ -5800,8 +7622,20 @@
       <c r="K152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="1">
+        <v>0</v>
+      </c>
+      <c r="M152" s="1">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -5817,7 +7651,7 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153">
         <v>1</v>
       </c>
       <c r="G153" s="1">
@@ -5835,8 +7669,20 @@
       <c r="K153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="1">
+        <v>1</v>
+      </c>
+      <c r="M153" s="1">
+        <v>1</v>
+      </c>
+      <c r="N153" s="1">
+        <v>1</v>
+      </c>
+      <c r="O153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>163</v>
       </c>
@@ -5852,7 +7698,7 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154">
         <v>1</v>
       </c>
       <c r="G154" s="1">
@@ -5870,13 +7716,25 @@
       <c r="K154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="L154" s="1">
+        <v>1</v>
+      </c>
+      <c r="M154" s="1">
+        <v>1</v>
+      </c>
+      <c r="N154" s="1">
+        <v>1</v>
+      </c>
+      <c r="O154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
       <c r="B155" s="2">
         <v>3160100049</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="2">
         <v>1</v>
       </c>
       <c r="D155" s="2">
@@ -5885,7 +7743,7 @@
       <c r="E155" s="2">
         <v>1</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155">
         <v>1</v>
       </c>
       <c r="G155" s="1">
@@ -5898,18 +7756,30 @@
         <v>1</v>
       </c>
       <c r="J155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
+      <c r="L155" s="1">
+        <v>1</v>
+      </c>
+      <c r="M155" s="1">
+        <v>1</v>
+      </c>
+      <c r="N155" s="1">
+        <v>1</v>
+      </c>
+      <c r="O155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
       <c r="B156" s="2">
         <v>3150100008</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="2">
         <v>1</v>
       </c>
       <c r="D156" s="2">
@@ -5918,7 +7788,7 @@
       <c r="E156" s="2">
         <v>1</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156">
         <v>1</v>
       </c>
       <c r="G156" s="1">
@@ -5934,6 +7804,18 @@
         <v>0</v>
       </c>
       <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1">
         <v>0</v>
       </c>
     </row>
